--- a/vfont-4dot-5dot.xlsx
+++ b/vfont-4dot-5dot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\don\Documents\Arduino\M5Atom-MAX7219-matrix-clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73B5483-DDBB-4B45-858E-E2C14866EDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F66C1FF-41A3-4DAE-B2AB-BFF044D282E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2820" windowWidth="18645" windowHeight="11145" xr2:uid="{4D8F5CE4-E7DE-4F67-BE11-46C8D4F4A3B1}"/>
+    <workbookView xWindow="9945" yWindow="1965" windowWidth="18645" windowHeight="11145" xr2:uid="{4D8F5CE4-E7DE-4F67-BE11-46C8D4F4A3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="4dot" sheetId="1" r:id="rId1"/>
@@ -89,157 +89,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -863,7 +713,7 @@
   <dimension ref="B2:BH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A14" sqref="A14:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1894,7 +1744,7 @@
         <v>124</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:G14" si="0">F4+F5*2+F6*4+F7*8+F8*16+F9*32+F10*64+F11*128</f>
+        <f t="shared" ref="F14" si="0">F4+F5*2+F6*4+F7*8+F8*16+F9*32+F10*64+F11*128</f>
         <v>0</v>
       </c>
       <c r="H14">
@@ -2291,210 +2141,210 @@
     </row>
     <row r="17" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B17" t="str">
-        <f>"\x"&amp;B15</f>
-        <v>\x7C</v>
+        <f>"0x"&amp;B15</f>
+        <v>0x7C</v>
       </c>
       <c r="C17" t="str">
-        <f>"\x"&amp;C15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;C15</f>
+        <v>0x82</v>
       </c>
       <c r="D17" t="str">
-        <f>"\x"&amp;D15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;D15</f>
+        <v>0x82</v>
       </c>
       <c r="E17" t="str">
-        <f>"\x"&amp;E15</f>
-        <v>\x7C</v>
+        <f>"0x"&amp;E15</f>
+        <v>0x7C</v>
       </c>
       <c r="F17" t="str">
-        <f>"\x"&amp;F15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;F15</f>
+        <v>0x00</v>
       </c>
       <c r="H17" t="str">
-        <f>"\x"&amp;H15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;H15</f>
+        <v>0x00</v>
       </c>
       <c r="I17" t="str">
-        <f>"\x"&amp;I15</f>
-        <v>\x84</v>
+        <f>"0x"&amp;I15</f>
+        <v>0x84</v>
       </c>
       <c r="J17" t="str">
-        <f>"\x"&amp;J15</f>
-        <v>\xFE</v>
+        <f>"0x"&amp;J15</f>
+        <v>0xFE</v>
       </c>
       <c r="K17" t="str">
-        <f>"\x"&amp;K15</f>
-        <v>\x80</v>
+        <f>"0x"&amp;K15</f>
+        <v>0x80</v>
       </c>
       <c r="L17" t="str">
-        <f>"\x"&amp;L15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;L15</f>
+        <v>0x00</v>
       </c>
       <c r="N17" t="str">
-        <f>"\x"&amp;N15</f>
-        <v>\x84</v>
+        <f>"0x"&amp;N15</f>
+        <v>0x84</v>
       </c>
       <c r="O17" t="str">
-        <f>"\x"&amp;O15</f>
-        <v>\xC2</v>
+        <f>"0x"&amp;O15</f>
+        <v>0xC2</v>
       </c>
       <c r="P17" t="str">
-        <f>"\x"&amp;P15</f>
-        <v>\xA2</v>
+        <f>"0x"&amp;P15</f>
+        <v>0xA2</v>
       </c>
       <c r="Q17" t="str">
-        <f>"\x"&amp;Q15</f>
-        <v>\x9C</v>
+        <f>"0x"&amp;Q15</f>
+        <v>0x9C</v>
       </c>
       <c r="R17" t="str">
-        <f>"\x"&amp;R15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;R15</f>
+        <v>0x00</v>
       </c>
       <c r="T17" t="str">
-        <f>"\x"&amp;T15</f>
-        <v>\x44</v>
+        <f>"0x"&amp;T15</f>
+        <v>0x44</v>
       </c>
       <c r="U17" t="str">
-        <f>"\x"&amp;U15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;U15</f>
+        <v>0x82</v>
       </c>
       <c r="V17" t="str">
-        <f>"\x"&amp;V15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;V15</f>
+        <v>0x92</v>
       </c>
       <c r="W17" t="str">
-        <f>"\x"&amp;W15</f>
-        <v>\x6C</v>
+        <f>"0x"&amp;W15</f>
+        <v>0x6C</v>
       </c>
       <c r="X17" t="str">
-        <f>"\x"&amp;X15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;X15</f>
+        <v>0x00</v>
       </c>
       <c r="Z17" t="str">
-        <f>"\x"&amp;Z15</f>
-        <v>\x38</v>
+        <f>"0x"&amp;Z15</f>
+        <v>0x38</v>
       </c>
       <c r="AA17" t="str">
-        <f>"\x"&amp;AA15</f>
-        <v>\x24</v>
+        <f>"0x"&amp;AA15</f>
+        <v>0x24</v>
       </c>
       <c r="AB17" t="str">
-        <f>"\x"&amp;AB15</f>
-        <v>\xFE</v>
+        <f>"0x"&amp;AB15</f>
+        <v>0xFE</v>
       </c>
       <c r="AC17" t="str">
-        <f>"\x"&amp;AC15</f>
-        <v>\x20</v>
+        <f>"0x"&amp;AC15</f>
+        <v>0x20</v>
       </c>
       <c r="AD17" t="str">
-        <f>"\x"&amp;AD15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;AD15</f>
+        <v>0x00</v>
       </c>
       <c r="AF17" t="str">
-        <f>"\x"&amp;AF15</f>
-        <v>\x4E</v>
+        <f>"0x"&amp;AF15</f>
+        <v>0x4E</v>
       </c>
       <c r="AG17" t="str">
-        <f>"\x"&amp;AG15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AG15</f>
+        <v>0x92</v>
       </c>
       <c r="AH17" t="str">
-        <f>"\x"&amp;AH15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AH15</f>
+        <v>0x92</v>
       </c>
       <c r="AI17" t="str">
-        <f>"\x"&amp;AI15</f>
-        <v>\x62</v>
+        <f>"0x"&amp;AI15</f>
+        <v>0x62</v>
       </c>
       <c r="AJ17" t="str">
-        <f>"\x"&amp;AJ15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;AJ15</f>
+        <v>0x00</v>
       </c>
       <c r="AL17" t="str">
-        <f>"\x"&amp;AL15</f>
-        <v>\x7C</v>
+        <f>"0x"&amp;AL15</f>
+        <v>0x7C</v>
       </c>
       <c r="AM17" t="str">
-        <f>"\x"&amp;AM15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AM15</f>
+        <v>0x92</v>
       </c>
       <c r="AN17" t="str">
-        <f>"\x"&amp;AN15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AN15</f>
+        <v>0x92</v>
       </c>
       <c r="AO17" t="str">
-        <f>"\x"&amp;AO15</f>
-        <v>\x64</v>
+        <f>"0x"&amp;AO15</f>
+        <v>0x64</v>
       </c>
       <c r="AP17" t="str">
-        <f>"\x"&amp;AP15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;AP15</f>
+        <v>0x00</v>
       </c>
       <c r="AR17" t="str">
-        <f>"\x"&amp;AR15</f>
-        <v>\x06</v>
+        <f>"0x"&amp;AR15</f>
+        <v>0x06</v>
       </c>
       <c r="AS17" t="str">
-        <f>"\x"&amp;AS15</f>
-        <v>\xE2</v>
+        <f>"0x"&amp;AS15</f>
+        <v>0xE2</v>
       </c>
       <c r="AT17" t="str">
-        <f>"\x"&amp;AT15</f>
-        <v>\x12</v>
+        <f>"0x"&amp;AT15</f>
+        <v>0x12</v>
       </c>
       <c r="AU17" t="str">
-        <f>"\x"&amp;AU15</f>
-        <v>\x0E</v>
+        <f>"0x"&amp;AU15</f>
+        <v>0x0E</v>
       </c>
       <c r="AV17" t="str">
-        <f>"\x"&amp;AV15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;AV15</f>
+        <v>0x00</v>
       </c>
       <c r="AX17" t="str">
-        <f>"\x"&amp;AX15</f>
-        <v>\x6C</v>
+        <f>"0x"&amp;AX15</f>
+        <v>0x6C</v>
       </c>
       <c r="AY17" t="str">
-        <f>"\x"&amp;AY15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AY15</f>
+        <v>0x92</v>
       </c>
       <c r="AZ17" t="str">
-        <f>"\x"&amp;AZ15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AZ15</f>
+        <v>0x92</v>
       </c>
       <c r="BA17" t="str">
-        <f>"\x"&amp;BA15</f>
-        <v>\x6C</v>
+        <f>"0x"&amp;BA15</f>
+        <v>0x6C</v>
       </c>
       <c r="BB17" t="str">
-        <f>"\x"&amp;BB15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;BB15</f>
+        <v>0x00</v>
       </c>
       <c r="BD17" t="str">
-        <f>"\x"&amp;BD15</f>
-        <v>\x0C</v>
+        <f>"0x"&amp;BD15</f>
+        <v>0x0C</v>
       </c>
       <c r="BE17" t="str">
-        <f>"\x"&amp;BE15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;BE15</f>
+        <v>0x92</v>
       </c>
       <c r="BF17" t="str">
-        <f>"\x"&amp;BF15</f>
-        <v>\x52</v>
+        <f>"0x"&amp;BF15</f>
+        <v>0x52</v>
       </c>
       <c r="BG17" t="str">
-        <f>"\x"&amp;BG15</f>
-        <v>\x3C</v>
+        <f>"0x"&amp;BG15</f>
+        <v>0x3C</v>
       </c>
       <c r="BH17" t="str">
-        <f>"\x"&amp;BH15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;BH15</f>
+        <v>0x00</v>
       </c>
     </row>
     <row r="18" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  B17:F17)</f>
-        <v>\x7C, \x82, \x82, \x7C, \x00</v>
+        <v>0x7C, 0x82, 0x82, 0x7C, 0x00</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2502,7 +2352,7 @@
       <c r="F18" s="2"/>
       <c r="H18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  H17:L17)</f>
-        <v>\x00, \x84, \xFE, \x80, \x00</v>
+        <v>0x00, 0x84, 0xFE, 0x80, 0x00</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2510,7 +2360,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  N17:R17)</f>
-        <v>\x84, \xC2, \xA2, \x9C, \x00</v>
+        <v>0x84, 0xC2, 0xA2, 0x9C, 0x00</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2518,7 +2368,7 @@
       <c r="R18" s="2"/>
       <c r="T18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  T17:X17)</f>
-        <v>\x44, \x82, \x92, \x6C, \x00</v>
+        <v>0x44, 0x82, 0x92, 0x6C, 0x00</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2526,7 +2376,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  Z17:AD17)</f>
-        <v>\x38, \x24, \xFE, \x20, \x00</v>
+        <v>0x38, 0x24, 0xFE, 0x20, 0x00</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -2534,7 +2384,7 @@
       <c r="AD18" s="2"/>
       <c r="AF18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AF17:AJ17)</f>
-        <v>\x4E, \x92, \x92, \x62, \x00</v>
+        <v>0x4E, 0x92, 0x92, 0x62, 0x00</v>
       </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -2542,7 +2392,7 @@
       <c r="AJ18" s="2"/>
       <c r="AL18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AL17:AP17)</f>
-        <v>\x7C, \x92, \x92, \x64, \x00</v>
+        <v>0x7C, 0x92, 0x92, 0x64, 0x00</v>
       </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
@@ -2550,7 +2400,7 @@
       <c r="AP18" s="2"/>
       <c r="AR18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AR17:AV17)</f>
-        <v>\x06, \xE2, \x12, \x0E, \x00</v>
+        <v>0x06, 0xE2, 0x12, 0x0E, 0x00</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -2558,7 +2408,7 @@
       <c r="AV18" s="2"/>
       <c r="AX18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AX17:BB17)</f>
-        <v>\x6C, \x92, \x92, \x6C, \x00</v>
+        <v>0x6C, 0x92, 0x92, 0x6C, 0x00</v>
       </c>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
@@ -2566,7 +2416,7 @@
       <c r="BB18" s="2"/>
       <c r="BD18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  BD17:BH17)</f>
-        <v>\x0C, \x92, \x52, \x3C, \x00</v>
+        <v>0x0C, 0x92, 0x52, 0x3C, 0x00</v>
       </c>
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
@@ -2588,81 +2438,82 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B4:M11 S4:S11">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:R11">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:Y11">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:W11">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE11">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AD11">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK11">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AJ11">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ11">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AP11">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW11">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AV11">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BC11">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BB11">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BG11">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3942,7 +3793,7 @@
         <v>130</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:G14" si="0">F4+F5*2+F6*4+F7*8+F8*16+F9*32+F10*64+F11*128</f>
+        <f t="shared" ref="F14" si="0">F4+F5*2+F6*4+F7*8+F8*16+F9*32+F10*64+F11*128</f>
         <v>124</v>
       </c>
       <c r="H14">
@@ -4339,210 +4190,210 @@
     </row>
     <row r="17" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B17" t="str">
-        <f>"\x"&amp;B15</f>
-        <v>\x7C</v>
+        <f>"0x"&amp;B15</f>
+        <v>0x7C</v>
       </c>
       <c r="C17" t="str">
-        <f>"\x"&amp;C15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;C15</f>
+        <v>0x82</v>
       </c>
       <c r="D17" t="str">
-        <f>"\x"&amp;D15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;D15</f>
+        <v>0x82</v>
       </c>
       <c r="E17" t="str">
-        <f>"\x"&amp;E15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;E15</f>
+        <v>0x82</v>
       </c>
       <c r="F17" t="str">
-        <f>"\x"&amp;F15</f>
-        <v>\x7C</v>
+        <f>"0x"&amp;F15</f>
+        <v>0x7C</v>
       </c>
       <c r="H17" t="str">
-        <f>"\x"&amp;H15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;H15</f>
+        <v>0x00</v>
       </c>
       <c r="I17" t="str">
-        <f>"\x"&amp;I15</f>
-        <v>\x84</v>
+        <f>"0x"&amp;I15</f>
+        <v>0x84</v>
       </c>
       <c r="J17" t="str">
-        <f>"\x"&amp;J15</f>
-        <v>\xFE</v>
+        <f>"0x"&amp;J15</f>
+        <v>0xFE</v>
       </c>
       <c r="K17" t="str">
-        <f>"\x"&amp;K15</f>
-        <v>\x80</v>
+        <f>"0x"&amp;K15</f>
+        <v>0x80</v>
       </c>
       <c r="L17" t="str">
-        <f>"\x"&amp;L15</f>
-        <v>\x00</v>
+        <f>"0x"&amp;L15</f>
+        <v>0x00</v>
       </c>
       <c r="N17" t="str">
-        <f>"\x"&amp;N15</f>
-        <v>\x84</v>
+        <f>"0x"&amp;N15</f>
+        <v>0x84</v>
       </c>
       <c r="O17" t="str">
-        <f>"\x"&amp;O15</f>
-        <v>\xC2</v>
+        <f>"0x"&amp;O15</f>
+        <v>0xC2</v>
       </c>
       <c r="P17" t="str">
-        <f>"\x"&amp;P15</f>
-        <v>\xA2</v>
+        <f>"0x"&amp;P15</f>
+        <v>0xA2</v>
       </c>
       <c r="Q17" t="str">
-        <f>"\x"&amp;Q15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;Q15</f>
+        <v>0x92</v>
       </c>
       <c r="R17" t="str">
-        <f>"\x"&amp;R15</f>
-        <v>\x8C</v>
+        <f>"0x"&amp;R15</f>
+        <v>0x8C</v>
       </c>
       <c r="T17" t="str">
-        <f>"\x"&amp;T15</f>
-        <v>\x42</v>
+        <f>"0x"&amp;T15</f>
+        <v>0x42</v>
       </c>
       <c r="U17" t="str">
-        <f>"\x"&amp;U15</f>
-        <v>\x82</v>
+        <f>"0x"&amp;U15</f>
+        <v>0x82</v>
       </c>
       <c r="V17" t="str">
-        <f>"\x"&amp;V15</f>
-        <v>\x8A</v>
+        <f>"0x"&amp;V15</f>
+        <v>0x8A</v>
       </c>
       <c r="W17" t="str">
-        <f>"\x"&amp;W15</f>
-        <v>\x96</v>
+        <f>"0x"&amp;W15</f>
+        <v>0x96</v>
       </c>
       <c r="X17" t="str">
-        <f>"\x"&amp;X15</f>
-        <v>\x62</v>
+        <f>"0x"&amp;X15</f>
+        <v>0x62</v>
       </c>
       <c r="Z17" t="str">
-        <f>"\x"&amp;Z15</f>
-        <v>\x30</v>
+        <f>"0x"&amp;Z15</f>
+        <v>0x30</v>
       </c>
       <c r="AA17" t="str">
-        <f>"\x"&amp;AA15</f>
-        <v>\x28</v>
+        <f>"0x"&amp;AA15</f>
+        <v>0x28</v>
       </c>
       <c r="AB17" t="str">
-        <f>"\x"&amp;AB15</f>
-        <v>\x24</v>
+        <f>"0x"&amp;AB15</f>
+        <v>0x24</v>
       </c>
       <c r="AC17" t="str">
-        <f>"\x"&amp;AC15</f>
-        <v>\xFE</v>
+        <f>"0x"&amp;AC15</f>
+        <v>0xFE</v>
       </c>
       <c r="AD17" t="str">
-        <f>"\x"&amp;AD15</f>
-        <v>\x20</v>
+        <f>"0x"&amp;AD15</f>
+        <v>0x20</v>
       </c>
       <c r="AF17" t="str">
-        <f>"\x"&amp;AF15</f>
-        <v>\x5E</v>
+        <f>"0x"&amp;AF15</f>
+        <v>0x5E</v>
       </c>
       <c r="AG17" t="str">
-        <f>"\x"&amp;AG15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AG15</f>
+        <v>0x92</v>
       </c>
       <c r="AH17" t="str">
-        <f>"\x"&amp;AH15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AH15</f>
+        <v>0x92</v>
       </c>
       <c r="AI17" t="str">
-        <f>"\x"&amp;AI15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AI15</f>
+        <v>0x92</v>
       </c>
       <c r="AJ17" t="str">
-        <f>"\x"&amp;AJ15</f>
-        <v>\x62</v>
+        <f>"0x"&amp;AJ15</f>
+        <v>0x62</v>
       </c>
       <c r="AL17" t="str">
-        <f>"\x"&amp;AL15</f>
-        <v>\x78</v>
+        <f>"0x"&amp;AL15</f>
+        <v>0x78</v>
       </c>
       <c r="AM17" t="str">
-        <f>"\x"&amp;AM15</f>
-        <v>\x94</v>
+        <f>"0x"&amp;AM15</f>
+        <v>0x94</v>
       </c>
       <c r="AN17" t="str">
-        <f>"\x"&amp;AN15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AN15</f>
+        <v>0x92</v>
       </c>
       <c r="AO17" t="str">
-        <f>"\x"&amp;AO15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AO15</f>
+        <v>0x92</v>
       </c>
       <c r="AP17" t="str">
-        <f>"\x"&amp;AP15</f>
-        <v>\x60</v>
+        <f>"0x"&amp;AP15</f>
+        <v>0x60</v>
       </c>
       <c r="AR17" t="str">
-        <f>"\x"&amp;AR15</f>
-        <v>\x06</v>
+        <f>"0x"&amp;AR15</f>
+        <v>0x06</v>
       </c>
       <c r="AS17" t="str">
-        <f>"\x"&amp;AS15</f>
-        <v>\x02</v>
+        <f>"0x"&amp;AS15</f>
+        <v>0x02</v>
       </c>
       <c r="AT17" t="str">
-        <f>"\x"&amp;AT15</f>
-        <v>\xF2</v>
+        <f>"0x"&amp;AT15</f>
+        <v>0xF2</v>
       </c>
       <c r="AU17" t="str">
-        <f>"\x"&amp;AU15</f>
-        <v>\x0A</v>
+        <f>"0x"&amp;AU15</f>
+        <v>0x0A</v>
       </c>
       <c r="AV17" t="str">
-        <f>"\x"&amp;AV15</f>
-        <v>\x06</v>
+        <f>"0x"&amp;AV15</f>
+        <v>0x06</v>
       </c>
       <c r="AX17" t="str">
-        <f>"\x"&amp;AX15</f>
-        <v>\x6C</v>
+        <f>"0x"&amp;AX15</f>
+        <v>0x6C</v>
       </c>
       <c r="AY17" t="str">
-        <f>"\x"&amp;AY15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AY15</f>
+        <v>0x92</v>
       </c>
       <c r="AZ17" t="str">
-        <f>"\x"&amp;AZ15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;AZ15</f>
+        <v>0x92</v>
       </c>
       <c r="BA17" t="str">
-        <f>"\x"&amp;BA15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;BA15</f>
+        <v>0x92</v>
       </c>
       <c r="BB17" t="str">
-        <f>"\x"&amp;BB15</f>
-        <v>\x6C</v>
+        <f>"0x"&amp;BB15</f>
+        <v>0x6C</v>
       </c>
       <c r="BD17" t="str">
-        <f>"\x"&amp;BD15</f>
-        <v>\x0C</v>
+        <f>"0x"&amp;BD15</f>
+        <v>0x0C</v>
       </c>
       <c r="BE17" t="str">
-        <f>"\x"&amp;BE15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;BE15</f>
+        <v>0x92</v>
       </c>
       <c r="BF17" t="str">
-        <f>"\x"&amp;BF15</f>
-        <v>\x92</v>
+        <f>"0x"&amp;BF15</f>
+        <v>0x92</v>
       </c>
       <c r="BG17" t="str">
-        <f>"\x"&amp;BG15</f>
-        <v>\x52</v>
+        <f>"0x"&amp;BG15</f>
+        <v>0x52</v>
       </c>
       <c r="BH17" t="str">
-        <f>"\x"&amp;BH15</f>
-        <v>\x3C</v>
+        <f>"0x"&amp;BH15</f>
+        <v>0x3C</v>
       </c>
     </row>
     <row r="18" spans="2:60" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  B17:F17)</f>
-        <v>\x7C, \x82, \x82, \x82, \x7C</v>
+        <v>0x7C, 0x82, 0x82, 0x82, 0x7C</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4550,7 +4401,7 @@
       <c r="F18" s="2"/>
       <c r="H18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  H17:L17)</f>
-        <v>\x00, \x84, \xFE, \x80, \x00</v>
+        <v>0x00, 0x84, 0xFE, 0x80, 0x00</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -4558,7 +4409,7 @@
       <c r="L18" s="2"/>
       <c r="N18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  N17:R17)</f>
-        <v>\x84, \xC2, \xA2, \x92, \x8C</v>
+        <v>0x84, 0xC2, 0xA2, 0x92, 0x8C</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -4566,7 +4417,7 @@
       <c r="R18" s="2"/>
       <c r="T18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  T17:X17)</f>
-        <v>\x42, \x82, \x8A, \x96, \x62</v>
+        <v>0x42, 0x82, 0x8A, 0x96, 0x62</v>
       </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -4574,7 +4425,7 @@
       <c r="X18" s="2"/>
       <c r="Z18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  Z17:AD17)</f>
-        <v>\x30, \x28, \x24, \xFE, \x20</v>
+        <v>0x30, 0x28, 0x24, 0xFE, 0x20</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -4582,7 +4433,7 @@
       <c r="AD18" s="2"/>
       <c r="AF18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AF17:AJ17)</f>
-        <v>\x5E, \x92, \x92, \x92, \x62</v>
+        <v>0x5E, 0x92, 0x92, 0x92, 0x62</v>
       </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4590,7 +4441,7 @@
       <c r="AJ18" s="2"/>
       <c r="AL18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AL17:AP17)</f>
-        <v>\x78, \x94, \x92, \x92, \x60</v>
+        <v>0x78, 0x94, 0x92, 0x92, 0x60</v>
       </c>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
@@ -4598,7 +4449,7 @@
       <c r="AP18" s="2"/>
       <c r="AR18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AR17:AV17)</f>
-        <v>\x06, \x02, \xF2, \x0A, \x06</v>
+        <v>0x06, 0x02, 0xF2, 0x0A, 0x06</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -4606,7 +4457,7 @@
       <c r="AV18" s="2"/>
       <c r="AX18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  AX17:BB17)</f>
-        <v>\x6C, \x92, \x92, \x92, \x6C</v>
+        <v>0x6C, 0x92, 0x92, 0x92, 0x6C</v>
       </c>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
@@ -4614,7 +4465,7 @@
       <c r="BB18" s="2"/>
       <c r="BD18" s="2" t="str">
         <f>_xlfn.TEXTJOIN(", ",FALSE,  BD17:BH17)</f>
-        <v>\x0C, \x92, \x92, \x52, \x3C</v>
+        <v>0x0C, 0x92, 0x92, 0x52, 0x3C</v>
       </c>
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
@@ -4636,77 +4487,77 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B4:M11 S4:S11">
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:R11">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:Y11">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:W11">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE11">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AD11">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK11">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AJ11">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AQ11">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AP11">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW4:AW11">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AV11">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BC11">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:BB11">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BG11">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
